--- a/biology/Zoologie/Dendrolycosa_duckitti/Dendrolycosa_duckitti.xlsx
+++ b/biology/Zoologie/Dendrolycosa_duckitti/Dendrolycosa_duckitti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrolycosa duckitti est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrolycosa duckitti est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Laos et en Indonésie à Sumatra[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Laos et en Indonésie à Sumatra.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,1 mm de long sur 3,4 mm et l'abdomen 6,1 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 4,9 mm de long sur 3,9 mm et l'abdomen 6,2 mm de long sur 3,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,1 mm de long sur 3,4 mm et l'abdomen 6,1 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 4,9 mm de long sur 3,9 mm et l'abdomen 6,2 mm de long sur 3,7 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gerald Duckitt[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gerald Duckitt.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jäger, 2011 : Revision of the spider genera Nilus O. Pickard-Cambridge 1876, Sphedanus Thorell 1877 and Dendrolycosa Doleschall 1859 (Araneae: Pisauridae). Zootaxa, no 3046, p. 1-38.</t>
         </is>
